--- a/P07/store/Scrum.xlsx
+++ b/P07/store/Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcia/Desktop/cse1325/P06/store/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcia/Desktop/cse1325/P07/store/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4082AC-6394-514D-9708-E569CD136D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C8745-2DB0-AE43-8730-C468ED2DBF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="187">
   <si>
     <t>Product Name:</t>
   </si>
@@ -576,6 +576,33 @@
   </si>
   <si>
     <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>Instance the Canvas on the About method</t>
+  </si>
+  <si>
+    <t>Write and/or update the About method with correct licenses</t>
+  </si>
+  <si>
+    <t>Write the Canvas class for the Enhanced Logo</t>
+  </si>
+  <si>
+    <t>implement the save method on all classes of folder store</t>
+  </si>
+  <si>
+    <t>Write the onNewClick method in MainWin.java</t>
+  </si>
+  <si>
+    <t>Write the onSaveClick method in MainWin.java</t>
+  </si>
+  <si>
+    <t>Write the onSaveAsClick method in MainWin.java</t>
+  </si>
+  <si>
+    <t>Write the onOpenClick method in MainWin.java</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -1107,13 +1134,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,28 +2053,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,8 +3801,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4033,11 +4060,11 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="5"/>
@@ -4057,7 +4084,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4077,7 +4104,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4594,8 +4621,12 @@
       <c r="E36" s="16">
         <v>5</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="17">
+        <v>3</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="H36" s="18" t="s">
         <v>70</v>
       </c>
@@ -4623,8 +4654,12 @@
       <c r="E37" s="16">
         <v>13</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="F37" s="17">
+        <v>3</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="H37" s="18" t="s">
         <v>79</v>
       </c>
@@ -4652,8 +4687,12 @@
       <c r="E38" s="16">
         <v>1</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="17">
+        <v>3</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="H38" s="18" t="s">
         <v>79</v>
       </c>
@@ -4681,8 +4720,12 @@
       <c r="E39" s="16">
         <v>5</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="F39" s="17">
+        <v>3</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="H39" s="18" t="s">
         <v>79</v>
       </c>
@@ -4710,8 +4753,12 @@
       <c r="E40" s="16">
         <v>8</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="F40" s="17">
+        <v>3</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="H40" s="18" t="s">
         <v>79</v>
       </c>
@@ -6970,7 +7017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -8192,8 +8239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8298,7 +8345,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -8313,7 +8360,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -8331,7 +8378,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -8349,7 +8396,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8367,7 +8414,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -8385,7 +8432,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -8403,7 +8450,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8421,11 +8468,11 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -8467,82 +8514,128 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="37"/>
+      <c r="D17" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="35" t="s">
+        <v>87</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
